--- a/Homework 4/Data Dictionary.xlsx
+++ b/Homework 4/Data Dictionary.xlsx
@@ -29,12 +29,6 @@
     <t>VARIABLE NAME</t>
   </si>
   <si>
-    <t xml:space="preserve"> DEFINITION</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> THEORETICAL EFFECT</t>
-  </si>
-  <si>
     <t xml:space="preserve">INDEX </t>
   </si>
   <si>
@@ -243,6 +237,12 @@
   </si>
   <si>
     <t>Years on Job</t>
+  </si>
+  <si>
+    <t>THEORETICAL EFFECT</t>
+  </si>
+  <si>
+    <t>DEFINITION</t>
   </si>
 </sst>
 </file>
@@ -597,7 +597,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,285 +612,285 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
         <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
         <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
         <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
         <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
         <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
         <v>40</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
         <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
         <v>46</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
         <v>51</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
         <v>54</v>
-      </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
         <v>57</v>
-      </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
         <v>60</v>
-      </c>
-      <c r="B23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
         <v>63</v>
-      </c>
-      <c r="B24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
         <v>67</v>
-      </c>
-      <c r="C25" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" t="s">
         <v>70</v>
       </c>
-      <c r="B26" t="s">
-        <v>72</v>
-      </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
